--- a/examples/raw/SP500.xlsx
+++ b/examples/raw/SP500.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78fea0453942dc16/Programming/AnomDetect/examples/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6395F-291B-4DD0-80C1-D225A2AC46CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B2D6395F-291B-4DD0-80C1-D225A2AC46CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEBACEA3-FF9D-48A9-9D51-DACE8C9B6004}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21285" windowHeight="11385" xr2:uid="{5DB75D0B-8826-42E5-8D77-0660FAAF643A}"/>
+    <workbookView xWindow="4170" yWindow="3270" windowWidth="21285" windowHeight="11385" xr2:uid="{5DB75D0B-8826-42E5-8D77-0660FAAF643A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,13 +53,13 @@
     <t>Close*</t>
   </si>
   <si>
-    <t>Adj Close**</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
     <t>SP500</t>
+  </si>
+  <si>
+    <t>SP500_LND</t>
   </si>
 </sst>
 </file>
@@ -158,6 +158,6097 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP500_LND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$428</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="427"/>
+                <c:pt idx="0">
+                  <c:v>31778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32082</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32234</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32356</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32387</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32417</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32448</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32478</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32509</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32540</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32690</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32721</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32752</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32782</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32813</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32843</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="m/d/yyyy">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="m/d/yyyy">
+                  <c:v>32905</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="m/d/yyyy">
+                  <c:v>32933</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="m/d/yyyy">
+                  <c:v>32964</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="m/d/yyyy">
+                  <c:v>32994</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="m/d/yyyy">
+                  <c:v>33025</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="m/d/yyyy">
+                  <c:v>33055</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="m/d/yyyy">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="m/d/yyyy">
+                  <c:v>33117</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="m/d/yyyy">
+                  <c:v>33147</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="m/d/yyyy">
+                  <c:v>33178</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="m/d/yyyy">
+                  <c:v>33208</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="m/d/yyyy">
+                  <c:v>33239</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="m/d/yyyy">
+                  <c:v>33270</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="m/d/yyyy">
+                  <c:v>33298</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="m/d/yyyy">
+                  <c:v>33329</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="m/d/yyyy">
+                  <c:v>33359</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="m/d/yyyy">
+                  <c:v>33390</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="m/d/yyyy">
+                  <c:v>33420</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="m/d/yyyy">
+                  <c:v>33451</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="m/d/yyyy">
+                  <c:v>33482</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="m/d/yyyy">
+                  <c:v>33512</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="m/d/yyyy">
+                  <c:v>33543</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="m/d/yyyy">
+                  <c:v>33573</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="m/d/yyyy">
+                  <c:v>33604</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="m/d/yyyy">
+                  <c:v>33635</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="m/d/yyyy">
+                  <c:v>33664</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="m/d/yyyy">
+                  <c:v>33695</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="m/d/yyyy">
+                  <c:v>33725</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="m/d/yyyy">
+                  <c:v>33756</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="m/d/yyyy">
+                  <c:v>33786</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="m/d/yyyy">
+                  <c:v>33817</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="m/d/yyyy">
+                  <c:v>33848</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="m/d/yyyy">
+                  <c:v>33878</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="m/d/yyyy">
+                  <c:v>33909</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="m/d/yyyy">
+                  <c:v>33939</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="m/d/yyyy">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="m/d/yyyy">
+                  <c:v>34001</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="m/d/yyyy">
+                  <c:v>34029</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="m/d/yyyy">
+                  <c:v>34060</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="m/d/yyyy">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="m/d/yyyy">
+                  <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="m/d/yyyy">
+                  <c:v>34151</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="m/d/yyyy">
+                  <c:v>34182</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="m/d/yyyy">
+                  <c:v>34213</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="m/d/yyyy">
+                  <c:v>34243</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="m/d/yyyy">
+                  <c:v>34274</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="m/d/yyyy">
+                  <c:v>34304</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="m/d/yyyy">
+                  <c:v>34335</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="m/d/yyyy">
+                  <c:v>34366</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="m/d/yyyy">
+                  <c:v>34394</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="m/d/yyyy">
+                  <c:v>34425</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="m/d/yyyy">
+                  <c:v>34455</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="m/d/yyyy">
+                  <c:v>34486</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="m/d/yyyy">
+                  <c:v>34516</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="m/d/yyyy">
+                  <c:v>34547</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="m/d/yyyy">
+                  <c:v>34578</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="m/d/yyyy">
+                  <c:v>34608</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="m/d/yyyy">
+                  <c:v>34639</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="m/d/yyyy">
+                  <c:v>34669</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="m/d/yyyy">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="m/d/yyyy">
+                  <c:v>34731</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="m/d/yyyy">
+                  <c:v>34759</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="m/d/yyyy">
+                  <c:v>34790</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="m/d/yyyy">
+                  <c:v>34820</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="m/d/yyyy">
+                  <c:v>34851</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="m/d/yyyy">
+                  <c:v>34881</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="m/d/yyyy">
+                  <c:v>34912</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="m/d/yyyy">
+                  <c:v>34943</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="m/d/yyyy">
+                  <c:v>34973</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="m/d/yyyy">
+                  <c:v>35004</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="m/d/yyyy">
+                  <c:v>35034</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="m/d/yyyy">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="m/d/yyyy">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="m/d/yyyy">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="m/d/yyyy">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="m/d/yyyy">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="m/d/yyyy">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="m/d/yyyy">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="m/d/yyyy">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="m/d/yyyy">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="m/d/yyyy">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="m/d/yyyy">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="m/d/yyyy">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="m/d/yyyy">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="m/d/yyyy">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="m/d/yyyy">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="m/d/yyyy">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="m/d/yyyy">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="m/d/yyyy">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="m/d/yyyy">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="m/d/yyyy">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="m/d/yyyy">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="m/d/yyyy">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="m/d/yyyy">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="m/d/yyyy">
+                  <c:v>35765</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="m/d/yyyy">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="m/d/yyyy">
+                  <c:v>35827</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="m/d/yyyy">
+                  <c:v>35855</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="m/d/yyyy">
+                  <c:v>35886</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="m/d/yyyy">
+                  <c:v>35916</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="m/d/yyyy">
+                  <c:v>35947</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="m/d/yyyy">
+                  <c:v>35977</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="m/d/yyyy">
+                  <c:v>36008</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="m/d/yyyy">
+                  <c:v>36039</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="m/d/yyyy">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="m/d/yyyy">
+                  <c:v>36100</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="m/d/yyyy">
+                  <c:v>36130</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="m/d/yyyy">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="m/d/yyyy">
+                  <c:v>36192</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="m/d/yyyy">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="m/d/yyyy">
+                  <c:v>36251</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="m/d/yyyy">
+                  <c:v>36281</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="m/d/yyyy">
+                  <c:v>36312</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="m/d/yyyy">
+                  <c:v>36342</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="m/d/yyyy">
+                  <c:v>36373</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="m/d/yyyy">
+                  <c:v>36404</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="m/d/yyyy">
+                  <c:v>36434</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="m/d/yyyy">
+                  <c:v>36465</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="m/d/yyyy">
+                  <c:v>36495</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="m/d/yyyy">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="m/d/yyyy">
+                  <c:v>36557</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="m/d/yyyy">
+                  <c:v>36586</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="m/d/yyyy">
+                  <c:v>36617</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="m/d/yyyy">
+                  <c:v>36647</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="m/d/yyyy">
+                  <c:v>36678</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="m/d/yyyy">
+                  <c:v>36708</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="m/d/yyyy">
+                  <c:v>36739</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="m/d/yyyy">
+                  <c:v>36770</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="m/d/yyyy">
+                  <c:v>36800</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="m/d/yyyy">
+                  <c:v>36831</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="m/d/yyyy">
+                  <c:v>36861</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="m/d/yyyy">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="m/d/yyyy">
+                  <c:v>36923</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="m/d/yyyy">
+                  <c:v>36951</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="m/d/yyyy">
+                  <c:v>36982</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="m/d/yyyy">
+                  <c:v>37012</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="m/d/yyyy">
+                  <c:v>37043</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="m/d/yyyy">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="m/d/yyyy">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="m/d/yyyy">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="m/d/yyyy">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="m/d/yyyy">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="m/d/yyyy">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="m/d/yyyy">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="m/d/yyyy">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="m/d/yyyy">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="m/d/yyyy">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="m/d/yyyy">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="m/d/yyyy">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="m/d/yyyy">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="m/d/yyyy">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="m/d/yyyy">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="m/d/yyyy">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="m/d/yyyy">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="m/d/yyyy">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="m/d/yyyy">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="m/d/yyyy">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="m/d/yyyy">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="m/d/yyyy">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="m/d/yyyy">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="m/d/yyyy">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="m/d/yyyy">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="m/d/yyyy">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="m/d/yyyy">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="m/d/yyyy">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="m/d/yyyy">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="m/d/yyyy">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="m/d/yyyy">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="m/d/yyyy">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="m/d/yyyy">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="m/d/yyyy">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="m/d/yyyy">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="m/d/yyyy">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="m/d/yyyy">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="m/d/yyyy">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="m/d/yyyy">
+                  <c:v>38231</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="m/d/yyyy">
+                  <c:v>38261</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="m/d/yyyy">
+                  <c:v>38292</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="m/d/yyyy">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="m/d/yyyy">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="m/d/yyyy">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="m/d/yyyy">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="m/d/yyyy">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="m/d/yyyy">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="m/d/yyyy">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="m/d/yyyy">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="m/d/yyyy">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="m/d/yyyy">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="m/d/yyyy">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="m/d/yyyy">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="m/d/yyyy">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="m/d/yyyy">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="m/d/yyyy">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="m/d/yyyy">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="m/d/yyyy">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="m/d/yyyy">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="m/d/yyyy">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="m/d/yyyy">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="m/d/yyyy">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="m/d/yyyy">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="m/d/yyyy">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="m/d/yyyy">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="m/d/yyyy">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="m/d/yyyy">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="m/d/yyyy">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="m/d/yyyy">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="m/d/yyyy">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="m/d/yyyy">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="m/d/yyyy">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="m/d/yyyy">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="m/d/yyyy">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="m/d/yyyy">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="m/d/yyyy">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="m/d/yyyy">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="m/d/yyyy">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="m/d/yyyy">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="m/d/yyyy">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="m/d/yyyy">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="m/d/yyyy">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="m/d/yyyy">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="257" formatCode="m/d/yyyy">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="258" formatCode="m/d/yyyy">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="259" formatCode="m/d/yyyy">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="260" formatCode="m/d/yyyy">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="261" formatCode="m/d/yyyy">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="262" formatCode="m/d/yyyy">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="263" formatCode="m/d/yyyy">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="264" formatCode="m/d/yyyy">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="265" formatCode="m/d/yyyy">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="266" formatCode="m/d/yyyy">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="267" formatCode="m/d/yyyy">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="268" formatCode="m/d/yyyy">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="269" formatCode="m/d/yyyy">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="270" formatCode="m/d/yyyy">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="271" formatCode="m/d/yyyy">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="272" formatCode="m/d/yyyy">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="273" formatCode="m/d/yyyy">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="274" formatCode="m/d/yyyy">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="275" formatCode="m/d/yyyy">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="276" formatCode="m/d/yyyy">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="277" formatCode="m/d/yyyy">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="278" formatCode="m/d/yyyy">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="279" formatCode="m/d/yyyy">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="280" formatCode="m/d/yyyy">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="281" formatCode="m/d/yyyy">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="282" formatCode="m/d/yyyy">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="283" formatCode="m/d/yyyy">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="284" formatCode="m/d/yyyy">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="285" formatCode="m/d/yyyy">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="286" formatCode="m/d/yyyy">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="287" formatCode="m/d/yyyy">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="288" formatCode="m/d/yyyy">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="289" formatCode="m/d/yyyy">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="290" formatCode="m/d/yyyy">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="291" formatCode="m/d/yyyy">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="292" formatCode="m/d/yyyy">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="293" formatCode="m/d/yyyy">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="294" formatCode="m/d/yyyy">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="295" formatCode="m/d/yyyy">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="296" formatCode="m/d/yyyy">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="297" formatCode="m/d/yyyy">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="298" formatCode="m/d/yyyy">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="299" formatCode="m/d/yyyy">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="300" formatCode="m/d/yyyy">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="301" formatCode="m/d/yyyy">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="302" formatCode="m/d/yyyy">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="303" formatCode="m/d/yyyy">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="304" formatCode="m/d/yyyy">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="305" formatCode="m/d/yyyy">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="306" formatCode="m/d/yyyy">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="307" formatCode="m/d/yyyy">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="308" formatCode="m/d/yyyy">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="309" formatCode="m/d/yyyy">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="310" formatCode="m/d/yyyy">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="311" formatCode="m/d/yyyy">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="312" formatCode="m/d/yyyy">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="313" formatCode="m/d/yyyy">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="314" formatCode="m/d/yyyy">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="315" formatCode="m/d/yyyy">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="316" formatCode="m/d/yyyy">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="317" formatCode="m/d/yyyy">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="318" formatCode="m/d/yyyy">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="319" formatCode="m/d/yyyy">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="320" formatCode="m/d/yyyy">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="321" formatCode="m/d/yyyy">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="322" formatCode="m/d/yyyy">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="m/d/yyyy">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="324" formatCode="m/d/yyyy">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="325" formatCode="m/d/yyyy">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="326" formatCode="m/d/yyyy">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="327" formatCode="m/d/yyyy">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="328" formatCode="m/d/yyyy">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="329" formatCode="m/d/yyyy">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="330" formatCode="m/d/yyyy">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="331" formatCode="m/d/yyyy">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="332" formatCode="m/d/yyyy">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="333" formatCode="m/d/yyyy">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="334" formatCode="m/d/yyyy">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="335" formatCode="m/d/yyyy">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="336" formatCode="m/d/yyyy">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="337" formatCode="m/d/yyyy">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="338" formatCode="m/d/yyyy">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="339" formatCode="m/d/yyyy">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="340" formatCode="m/d/yyyy">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="341" formatCode="m/d/yyyy">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="342" formatCode="m/d/yyyy">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="343" formatCode="m/d/yyyy">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="344" formatCode="m/d/yyyy">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="345" formatCode="m/d/yyyy">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="346" formatCode="m/d/yyyy">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="347" formatCode="m/d/yyyy">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="348" formatCode="m/d/yyyy">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="349" formatCode="m/d/yyyy">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="350" formatCode="m/d/yyyy">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="351" formatCode="m/d/yyyy">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="352" formatCode="m/d/yyyy">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="353" formatCode="m/d/yyyy">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="354" formatCode="m/d/yyyy">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="355" formatCode="m/d/yyyy">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="356" formatCode="m/d/yyyy">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="357" formatCode="m/d/yyyy">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="358" formatCode="m/d/yyyy">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="359" formatCode="m/d/yyyy">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="360" formatCode="m/d/yyyy">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="361" formatCode="m/d/yyyy">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="362" formatCode="m/d/yyyy">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="363" formatCode="m/d/yyyy">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="364" formatCode="m/d/yyyy">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="365" formatCode="m/d/yyyy">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="366" formatCode="m/d/yyyy">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="367" formatCode="m/d/yyyy">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="368" formatCode="m/d/yyyy">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="369" formatCode="m/d/yyyy">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="370" formatCode="m/d/yyyy">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="371" formatCode="m/d/yyyy">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="372" formatCode="m/d/yyyy">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="373" formatCode="m/d/yyyy">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="374" formatCode="m/d/yyyy">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="375" formatCode="m/d/yyyy">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="376" formatCode="m/d/yyyy">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="377" formatCode="m/d/yyyy">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="378" formatCode="m/d/yyyy">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="379" formatCode="m/d/yyyy">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="380" formatCode="m/d/yyyy">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="381" formatCode="m/d/yyyy">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="382" formatCode="m/d/yyyy">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="383" formatCode="m/d/yyyy">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="384" formatCode="m/d/yyyy">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="385" formatCode="m/d/yyyy">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="386" formatCode="m/d/yyyy">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="387" formatCode="m/d/yyyy">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="388" formatCode="m/d/yyyy">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="389" formatCode="m/d/yyyy">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="390" formatCode="m/d/yyyy">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="391" formatCode="m/d/yyyy">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="392" formatCode="m/d/yyyy">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="393" formatCode="m/d/yyyy">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="394" formatCode="m/d/yyyy">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="395" formatCode="m/d/yyyy">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="396" formatCode="m/d/yyyy">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="397" formatCode="m/d/yyyy">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="398" formatCode="m/d/yyyy">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="399" formatCode="m/d/yyyy">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="400" formatCode="m/d/yyyy">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="401" formatCode="m/d/yyyy">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="402" formatCode="m/d/yyyy">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="403" formatCode="m/d/yyyy">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="404" formatCode="m/d/yyyy">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="405" formatCode="m/d/yyyy">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="406" formatCode="m/d/yyyy">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="407" formatCode="m/d/yyyy">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="408" formatCode="m/d/yyyy">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="409" formatCode="m/d/yyyy">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="410" formatCode="m/d/yyyy">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="411" formatCode="m/d/yyyy">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="412" formatCode="m/d/yyyy">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="413" formatCode="m/d/yyyy">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="414" formatCode="m/d/yyyy">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="415" formatCode="m/d/yyyy">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="416" formatCode="m/d/yyyy">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="417" formatCode="m/d/yyyy">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="418" formatCode="m/d/yyyy">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="419" formatCode="m/d/yyyy">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="420" formatCode="m/d/yyyy">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="421" formatCode="m/d/yyyy">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="422" formatCode="m/d/yyyy">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="423" formatCode="m/d/yyyy">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="424" formatCode="m/d/yyyy">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="425" formatCode="m/d/yyyy">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="426" formatCode="m/d/yyyy">
+                  <c:v>44743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$428</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="427"/>
+                <c:pt idx="1">
+                  <c:v>3.6258181087190464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6047661210675557E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1516177337297796E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0159915909805302E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6802010278863354E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7097002256141135E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4361706463135709E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4462954306486141E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.24542804905616661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.9212599936206338E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0329364001058853E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9636250521438751E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0966691718283009E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.3911852007609634E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3807154390997839E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1710278916489078E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.234661747147659E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.4260288574285954E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.9364830588652158E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8960366773456948E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5633119968803644E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9071633111582321E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4580795838439433E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8699967679748813E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.9371237891800857E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0592439573627015E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8875751089864888E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4534344573357141E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.9561891893066752E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4681474484185448E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5397491417165792E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.5658243298701386E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.5497748310687626E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.640599192460053E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1190686979638836E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.1299677584866494E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.5027064141996317E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3965542734276302E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.725516829966913E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.8000911422701028E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.926023810191917E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5.236860337682712E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-9.9062824981413652E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.2540678145870282E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.7207858908572074E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.8206840656618929E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4524556940845963E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0679049291051018E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.5114417266915761E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.1959955053811844E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.197612476616412E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.7878464793764027E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-4.9077510171911871E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.3882292478987416E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9458251428518099E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.9329330624389317E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1764690804727924E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4.4896619957357782E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10578950523409669</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.0124911835929814E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.5438227449044198E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.2073680075901551E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.7510774361822428E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.6350724062356312E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.7511285484140954E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.8618362837734996E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.4290180670616498E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0644141544072004E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1040558642175401E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.9812920535904664E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0057058909607923E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.0212640787190254E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0429041654892349E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.852463452645282E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.5745372804774513E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.2463263988382214E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.5495163013733827E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-5.34129861324958E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.3852457573435274E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.0038133482406217E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9207289080128778E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.2994739773819838E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0040591116877065E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1983824491671184E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.0505659289310708E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-4.6825874672964972E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1464639111236987E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2320936987420615E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.7156214317501502E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.100422291367488E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6909142638887928E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.7245343314899879E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.061972825995886E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-4.0306090784384588E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2224126981340542E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.3987640275298247E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.5438711264096985E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.6962467224111115E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7576544087838481E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.5667976484469642E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.1055362076815406E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.1281631936187715E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-3.2030179820779727E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9314487334853557E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-4.9918193388436179E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.0228869387183341E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7293479366880037E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.2096688673788003E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.9098163601865855E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.8853845399401695E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3342046230175701E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.2596159723396021E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.2541528484939432E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-4.6827520786961854E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.8639176083919788E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.27853018507915E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.5766181981528097E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.0808964949664502E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.1739986636405875E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.9510647522872405E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.910047767196773E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-4.3548620471400873E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.6763565069968873E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.6925443550926928E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.2535054616412785E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.5242741666075974E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-5.9182865281095121E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.1789019050444966E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-3.508604155478369E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.3621422487943796E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5609171282679583E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0098972903237103E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.8078428947376632E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.8738429632941518E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.0355256687094428E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-1.9005643420609574E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.8680394888453609E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.1683381142634086E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.15758607007429418</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.052629920018749E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.7233407495323633E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.7444072007151667E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.4843527731920916E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.0190831279158935E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-3.2815090665377786E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.8060600567156579E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.7241815948836486E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-2.5287465853720853E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.3008239791665523E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-3.2570815353280949E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-6.2737783777968726E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.8967267082334575E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.0661766747015879E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.8882472761026243E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.6232799654105478E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-5.2244822952783904E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.0313062610448358E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9.2323812122223556E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-3.1279977258077872E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.2158698229963615E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.3651631156730649E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.647625326436223E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.8928157588211842E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-5.4966292284748544E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-4.9617849736629414E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-8.3456133710587313E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.0451932227232121E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.4050246450141819E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-9.6831090416541171E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-6.635854393013127E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.4007010555980454E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.0772876986084174E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-2.5354152249423972E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.0798221205900169E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-6.6255605887467039E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-8.5256615246989922E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.7937188329115412E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.2484350433373146E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.545292033896033E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.5696373666933345E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-2.0984886675167722E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.6080076252758407E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-6.3384682784413518E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-9.122942297125956E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-7.5214343275906148E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-8.2299871837899052E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4.8695443903156652E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.11656116844786664</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8.2914421028757151E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.550058467611222E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-6.2229277129875436E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-2.7797493671422965E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-1.7149844258839787E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.3228742528296627E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7.7927350029476733E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.9645665489287727E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.125862601085219E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.6093506478773681E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.7715343790636197E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-1.2016232567985653E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.3504268464946513E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>7.1032253560451564E-3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.9518899306471208E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.7128882262967212E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.2135100829125884E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-1.6494220669989047E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-1.6933393494544095E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.2011024205564368E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.7829189249312503E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-3.4892238215330364E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.284720571713859E-3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9.3203368022064838E-3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.391695587821374E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.7868779461133012E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.1942491193192112E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-2.5615747968515911E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.8726934874337724E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-1.930275225452871E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-2.031351934767037E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.9512223385105795E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-1.4268747689802155E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.5336451864729147E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.1285467972359155E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6.9249074268589216E-3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.7899994313773929E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.4581237676988605E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-9.528500142413687E-4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.5147961230518261E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.529940641520396E-4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.1034733969458945E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.2082373675144375E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-3.1404913585891703E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>8.6604285391806066E-5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5.072924191958309E-3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.105112458799209E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.4269376195304011E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3.1021836917226073E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.6332505122359679E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.2536835916847028E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.3961172524527271E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-2.2088305664389823E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9.9304839152859412E-3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.2379836237605301E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3.2030723748061214E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.7976930819991094E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-3.2504500841186675E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.2781559065278813E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3.5168283637491062E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.4713557788708606E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-4.5042789369416157E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-8.6659298048018304E-3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-6.3113909602276946E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-3.5379707842082095E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-5.9774122413739049E-3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.6450939660056381E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.0617586652650165E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-8.98835504310454E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-9.9083004864562122E-3</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.2116797460712942E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-9.5180786774375359E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-0.18563648644598751</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-7.7798346417088868E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>7.7911357772817548E-3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-8.9549885511070959E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-0.11645654382051443</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8.1952736214643773E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>8.9772214920969498E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5.1720558420882315E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.9581606407012827E-4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>7.1521977088891908E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3.3009321348136535E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.5100104155946166E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.9959865222177731E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.5779015582807137E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.7614546700982087E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-3.7675141059320766E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.8114744036660498E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.7132760645483123E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.4651468311863144E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-8.5531653633770133E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-5.5388380132376618E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6.6515783274589638E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-4.8611803170382606E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>8.3928475095282604E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.6193000710687595E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-2.2929094870601432E-3</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>6.3256517221926059E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2.239298525651701E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.1456595040144836E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-1.0478506829378123E-3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.809691636712916E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-1.3592893899637262E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-1.8426233301897538E-2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-2.1708367435427242E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-5.8467491619120418E-2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-7.4467127542783104E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.10230659165059017</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-5.0714834366809821E-3</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>8.4965534941463527E-3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4.2659999011137491E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.9787331386417914E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3.0851535762571346E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-7.5257447960486246E-3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-6.4699250170469236E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.8792661243837456E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.2518948972710817E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.9570602004381984E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2.394705705020073E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-1.9987836058499683E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2.8426587376603443E-3</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7.0434471114575181E-3</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>4.9197760692578335E-2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.0999881888155871E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3.535536713008354E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.7924162116924588E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2.0550174751576469E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-1.5112952997701294E-2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>4.8277757876973679E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-3.179826168331884E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2.9315544388002535E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>4.3629977912082465E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2.7663279564206007E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2.328951485450324E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-3.6231396526946812E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>4.2213382157548759E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>6.9082404225633224E-3</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6.1816510284721333E-3</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2.0812198017934665E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1.8878978754786419E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-1.5194720363435775E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3.6963669606978507E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-1.563545834824645E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2.2936394439525502E-2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2.4237469419438731E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-4.1973084502868246E-3</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-3.1532821802626031E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5.3438871430552516E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-1.7549145486384792E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>8.4846659144496416E-3</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.0436785331839957E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-2.1235661913586588E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.9549693281665254E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-6.4624716451134656E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-2.6798718987715901E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>7.9719343140922758E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5.0483561461322503E-4</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-1.7685671969978563E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-5.2067640939352233E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-4.1369004400577192E-3</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>6.3904984919882377E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2.6957330678163125E-3</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.5208413737977483E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>9.1043213678956392E-4</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3.4990438943766668E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-1.2199193604147071E-3</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-1.2352452011046586E-3</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-1.9616782104688858E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3.3603472465471074E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.8037103051757427E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.772629809300964E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3.6523097609435645E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-3.8930594013980509E-4</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>9.0501405584374091E-3</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.1509718385591177E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>4.802282553352028E-3</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.9163961513693484E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>5.4634305631591474E-4</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.9118957203248872E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2.1945598878305109E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2.7695515330648682E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>9.783603904362663E-3</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>5.4657417787024952E-2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-3.9726115635920697E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-2.725251295379243E-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>2.7151117471289339E-3</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2.1378202402637565E-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>4.8307134968018613E-3</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3.5387979976799259E-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2.9814321663194848E-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>4.2851067203219049E-3</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-7.1929349055660202E-2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.7701776759294796E-2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-9.6265287118076068E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>7.574215482837561E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>2.9295592986693514E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.7765541837019908E-2</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3.8560336443090391E-2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-6.8040888853204307E-2</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>6.6658319534241436E-2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.3042767473010496E-2</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-1.8257307714875135E-2</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.7035240523677681E-2</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2.0225819582931022E-2</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>3.3480291579323126E-2</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2.818874101228944E-2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-1.6294165896177356E-3</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-8.7859520936204846E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-0.13366776859296695</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.11942089623740584</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>4.4286490230530599E-2</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.8221381004063585E-2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>5.3636778409248576E-2</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>6.7719102089653677E-2</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-4.0018103243589488E-2</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-2.8055680339689231E-2</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.10214644831840361</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>3.6448997283216107E-2</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>-1.1199116821942242E-2</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>2.5756899667125591E-2</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>4.1562808697442971E-2</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>5.1097322114293922E-2</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>5.4715065520221503E-3</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>2.1970840045862021E-2</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>2.249322924674322E-2</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>2.857805096868915E-2</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-4.8737762984622721E-2</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>6.6858209798173654E-2</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-8.3686511009886007E-3</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>4.2688611280446646E-2</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>-5.401814986501885E-2</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>-3.1862790878923103E-2</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>3.5148238386268404E-2</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>-9.2067832960435178E-2</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>5.3242466203463356E-5</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-8.7651574480173397E-2</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>8.7201344274224588E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3A2-4FAE-A3D9-B896AD980430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="558025120"/>
+        <c:axId val="558026104"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Close*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$428</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="427"/>
+                <c:pt idx="0">
+                  <c:v>31778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32082</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32234</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32356</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32387</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32417</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32448</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32478</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32509</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32540</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32690</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32721</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32752</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32782</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32813</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32843</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="m/d/yyyy">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="m/d/yyyy">
+                  <c:v>32905</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="m/d/yyyy">
+                  <c:v>32933</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="m/d/yyyy">
+                  <c:v>32964</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="m/d/yyyy">
+                  <c:v>32994</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="m/d/yyyy">
+                  <c:v>33025</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="m/d/yyyy">
+                  <c:v>33055</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="m/d/yyyy">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="m/d/yyyy">
+                  <c:v>33117</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="m/d/yyyy">
+                  <c:v>33147</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="m/d/yyyy">
+                  <c:v>33178</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="m/d/yyyy">
+                  <c:v>33208</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="m/d/yyyy">
+                  <c:v>33239</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="m/d/yyyy">
+                  <c:v>33270</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="m/d/yyyy">
+                  <c:v>33298</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="m/d/yyyy">
+                  <c:v>33329</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="m/d/yyyy">
+                  <c:v>33359</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="m/d/yyyy">
+                  <c:v>33390</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="m/d/yyyy">
+                  <c:v>33420</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="m/d/yyyy">
+                  <c:v>33451</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="m/d/yyyy">
+                  <c:v>33482</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="m/d/yyyy">
+                  <c:v>33512</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="m/d/yyyy">
+                  <c:v>33543</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="m/d/yyyy">
+                  <c:v>33573</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="m/d/yyyy">
+                  <c:v>33604</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="m/d/yyyy">
+                  <c:v>33635</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="m/d/yyyy">
+                  <c:v>33664</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="m/d/yyyy">
+                  <c:v>33695</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="m/d/yyyy">
+                  <c:v>33725</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="m/d/yyyy">
+                  <c:v>33756</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="m/d/yyyy">
+                  <c:v>33786</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="m/d/yyyy">
+                  <c:v>33817</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="m/d/yyyy">
+                  <c:v>33848</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="m/d/yyyy">
+                  <c:v>33878</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="m/d/yyyy">
+                  <c:v>33909</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="m/d/yyyy">
+                  <c:v>33939</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="m/d/yyyy">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="m/d/yyyy">
+                  <c:v>34001</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="m/d/yyyy">
+                  <c:v>34029</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="m/d/yyyy">
+                  <c:v>34060</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="m/d/yyyy">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="m/d/yyyy">
+                  <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="m/d/yyyy">
+                  <c:v>34151</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="m/d/yyyy">
+                  <c:v>34182</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="m/d/yyyy">
+                  <c:v>34213</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="m/d/yyyy">
+                  <c:v>34243</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="m/d/yyyy">
+                  <c:v>34274</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="m/d/yyyy">
+                  <c:v>34304</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="m/d/yyyy">
+                  <c:v>34335</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="m/d/yyyy">
+                  <c:v>34366</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="m/d/yyyy">
+                  <c:v>34394</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="m/d/yyyy">
+                  <c:v>34425</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="m/d/yyyy">
+                  <c:v>34455</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="m/d/yyyy">
+                  <c:v>34486</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="m/d/yyyy">
+                  <c:v>34516</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="m/d/yyyy">
+                  <c:v>34547</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="m/d/yyyy">
+                  <c:v>34578</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="m/d/yyyy">
+                  <c:v>34608</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="m/d/yyyy">
+                  <c:v>34639</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="m/d/yyyy">
+                  <c:v>34669</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="m/d/yyyy">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="m/d/yyyy">
+                  <c:v>34731</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="m/d/yyyy">
+                  <c:v>34759</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="m/d/yyyy">
+                  <c:v>34790</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="m/d/yyyy">
+                  <c:v>34820</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="m/d/yyyy">
+                  <c:v>34851</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="m/d/yyyy">
+                  <c:v>34881</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="m/d/yyyy">
+                  <c:v>34912</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="m/d/yyyy">
+                  <c:v>34943</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="m/d/yyyy">
+                  <c:v>34973</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="m/d/yyyy">
+                  <c:v>35004</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="m/d/yyyy">
+                  <c:v>35034</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="m/d/yyyy">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="m/d/yyyy">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="m/d/yyyy">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="m/d/yyyy">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="m/d/yyyy">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="m/d/yyyy">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="m/d/yyyy">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="m/d/yyyy">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="m/d/yyyy">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="m/d/yyyy">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="m/d/yyyy">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="m/d/yyyy">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="m/d/yyyy">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="m/d/yyyy">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="m/d/yyyy">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="m/d/yyyy">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="m/d/yyyy">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="m/d/yyyy">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="m/d/yyyy">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="m/d/yyyy">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="m/d/yyyy">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="m/d/yyyy">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="m/d/yyyy">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="m/d/yyyy">
+                  <c:v>35765</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="m/d/yyyy">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="m/d/yyyy">
+                  <c:v>35827</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="m/d/yyyy">
+                  <c:v>35855</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="m/d/yyyy">
+                  <c:v>35886</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="m/d/yyyy">
+                  <c:v>35916</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="m/d/yyyy">
+                  <c:v>35947</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="m/d/yyyy">
+                  <c:v>35977</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="m/d/yyyy">
+                  <c:v>36008</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="m/d/yyyy">
+                  <c:v>36039</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="m/d/yyyy">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="m/d/yyyy">
+                  <c:v>36100</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="m/d/yyyy">
+                  <c:v>36130</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="m/d/yyyy">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="m/d/yyyy">
+                  <c:v>36192</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="m/d/yyyy">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="m/d/yyyy">
+                  <c:v>36251</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="m/d/yyyy">
+                  <c:v>36281</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="m/d/yyyy">
+                  <c:v>36312</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="m/d/yyyy">
+                  <c:v>36342</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="m/d/yyyy">
+                  <c:v>36373</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="m/d/yyyy">
+                  <c:v>36404</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="m/d/yyyy">
+                  <c:v>36434</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="m/d/yyyy">
+                  <c:v>36465</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="m/d/yyyy">
+                  <c:v>36495</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="m/d/yyyy">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="m/d/yyyy">
+                  <c:v>36557</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="m/d/yyyy">
+                  <c:v>36586</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="m/d/yyyy">
+                  <c:v>36617</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="m/d/yyyy">
+                  <c:v>36647</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="m/d/yyyy">
+                  <c:v>36678</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="m/d/yyyy">
+                  <c:v>36708</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="m/d/yyyy">
+                  <c:v>36739</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="m/d/yyyy">
+                  <c:v>36770</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="m/d/yyyy">
+                  <c:v>36800</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="m/d/yyyy">
+                  <c:v>36831</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="m/d/yyyy">
+                  <c:v>36861</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="m/d/yyyy">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="m/d/yyyy">
+                  <c:v>36923</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="m/d/yyyy">
+                  <c:v>36951</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="m/d/yyyy">
+                  <c:v>36982</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="m/d/yyyy">
+                  <c:v>37012</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="m/d/yyyy">
+                  <c:v>37043</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="m/d/yyyy">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="m/d/yyyy">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="m/d/yyyy">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="m/d/yyyy">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="m/d/yyyy">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="m/d/yyyy">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="m/d/yyyy">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="m/d/yyyy">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="m/d/yyyy">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="m/d/yyyy">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="m/d/yyyy">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="m/d/yyyy">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="m/d/yyyy">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="m/d/yyyy">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="m/d/yyyy">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="m/d/yyyy">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="m/d/yyyy">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="m/d/yyyy">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="m/d/yyyy">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="m/d/yyyy">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="m/d/yyyy">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="m/d/yyyy">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="m/d/yyyy">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="m/d/yyyy">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="m/d/yyyy">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="m/d/yyyy">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="m/d/yyyy">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="m/d/yyyy">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="m/d/yyyy">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="m/d/yyyy">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="m/d/yyyy">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="m/d/yyyy">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="m/d/yyyy">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="m/d/yyyy">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="m/d/yyyy">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="m/d/yyyy">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="m/d/yyyy">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="m/d/yyyy">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="m/d/yyyy">
+                  <c:v>38231</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="m/d/yyyy">
+                  <c:v>38261</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="m/d/yyyy">
+                  <c:v>38292</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="m/d/yyyy">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="m/d/yyyy">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="m/d/yyyy">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="m/d/yyyy">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="m/d/yyyy">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="m/d/yyyy">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="m/d/yyyy">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="m/d/yyyy">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="m/d/yyyy">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="m/d/yyyy">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="m/d/yyyy">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="m/d/yyyy">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="m/d/yyyy">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="m/d/yyyy">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="m/d/yyyy">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="m/d/yyyy">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="m/d/yyyy">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="m/d/yyyy">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="m/d/yyyy">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="m/d/yyyy">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="m/d/yyyy">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="m/d/yyyy">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="m/d/yyyy">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="m/d/yyyy">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="m/d/yyyy">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="m/d/yyyy">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="m/d/yyyy">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="m/d/yyyy">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="m/d/yyyy">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="m/d/yyyy">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="m/d/yyyy">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="m/d/yyyy">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="m/d/yyyy">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="m/d/yyyy">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="m/d/yyyy">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="m/d/yyyy">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="m/d/yyyy">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="m/d/yyyy">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="m/d/yyyy">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="m/d/yyyy">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="m/d/yyyy">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="m/d/yyyy">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="257" formatCode="m/d/yyyy">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="258" formatCode="m/d/yyyy">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="259" formatCode="m/d/yyyy">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="260" formatCode="m/d/yyyy">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="261" formatCode="m/d/yyyy">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="262" formatCode="m/d/yyyy">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="263" formatCode="m/d/yyyy">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="264" formatCode="m/d/yyyy">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="265" formatCode="m/d/yyyy">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="266" formatCode="m/d/yyyy">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="267" formatCode="m/d/yyyy">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="268" formatCode="m/d/yyyy">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="269" formatCode="m/d/yyyy">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="270" formatCode="m/d/yyyy">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="271" formatCode="m/d/yyyy">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="272" formatCode="m/d/yyyy">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="273" formatCode="m/d/yyyy">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="274" formatCode="m/d/yyyy">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="275" formatCode="m/d/yyyy">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="276" formatCode="m/d/yyyy">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="277" formatCode="m/d/yyyy">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="278" formatCode="m/d/yyyy">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="279" formatCode="m/d/yyyy">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="280" formatCode="m/d/yyyy">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="281" formatCode="m/d/yyyy">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="282" formatCode="m/d/yyyy">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="283" formatCode="m/d/yyyy">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="284" formatCode="m/d/yyyy">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="285" formatCode="m/d/yyyy">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="286" formatCode="m/d/yyyy">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="287" formatCode="m/d/yyyy">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="288" formatCode="m/d/yyyy">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="289" formatCode="m/d/yyyy">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="290" formatCode="m/d/yyyy">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="291" formatCode="m/d/yyyy">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="292" formatCode="m/d/yyyy">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="293" formatCode="m/d/yyyy">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="294" formatCode="m/d/yyyy">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="295" formatCode="m/d/yyyy">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="296" formatCode="m/d/yyyy">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="297" formatCode="m/d/yyyy">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="298" formatCode="m/d/yyyy">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="299" formatCode="m/d/yyyy">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="300" formatCode="m/d/yyyy">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="301" formatCode="m/d/yyyy">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="302" formatCode="m/d/yyyy">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="303" formatCode="m/d/yyyy">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="304" formatCode="m/d/yyyy">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="305" formatCode="m/d/yyyy">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="306" formatCode="m/d/yyyy">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="307" formatCode="m/d/yyyy">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="308" formatCode="m/d/yyyy">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="309" formatCode="m/d/yyyy">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="310" formatCode="m/d/yyyy">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="311" formatCode="m/d/yyyy">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="312" formatCode="m/d/yyyy">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="313" formatCode="m/d/yyyy">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="314" formatCode="m/d/yyyy">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="315" formatCode="m/d/yyyy">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="316" formatCode="m/d/yyyy">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="317" formatCode="m/d/yyyy">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="318" formatCode="m/d/yyyy">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="319" formatCode="m/d/yyyy">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="320" formatCode="m/d/yyyy">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="321" formatCode="m/d/yyyy">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="322" formatCode="m/d/yyyy">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="m/d/yyyy">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="324" formatCode="m/d/yyyy">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="325" formatCode="m/d/yyyy">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="326" formatCode="m/d/yyyy">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="327" formatCode="m/d/yyyy">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="328" formatCode="m/d/yyyy">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="329" formatCode="m/d/yyyy">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="330" formatCode="m/d/yyyy">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="331" formatCode="m/d/yyyy">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="332" formatCode="m/d/yyyy">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="333" formatCode="m/d/yyyy">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="334" formatCode="m/d/yyyy">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="335" formatCode="m/d/yyyy">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="336" formatCode="m/d/yyyy">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="337" formatCode="m/d/yyyy">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="338" formatCode="m/d/yyyy">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="339" formatCode="m/d/yyyy">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="340" formatCode="m/d/yyyy">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="341" formatCode="m/d/yyyy">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="342" formatCode="m/d/yyyy">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="343" formatCode="m/d/yyyy">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="344" formatCode="m/d/yyyy">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="345" formatCode="m/d/yyyy">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="346" formatCode="m/d/yyyy">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="347" formatCode="m/d/yyyy">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="348" formatCode="m/d/yyyy">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="349" formatCode="m/d/yyyy">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="350" formatCode="m/d/yyyy">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="351" formatCode="m/d/yyyy">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="352" formatCode="m/d/yyyy">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="353" formatCode="m/d/yyyy">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="354" formatCode="m/d/yyyy">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="355" formatCode="m/d/yyyy">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="356" formatCode="m/d/yyyy">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="357" formatCode="m/d/yyyy">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="358" formatCode="m/d/yyyy">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="359" formatCode="m/d/yyyy">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="360" formatCode="m/d/yyyy">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="361" formatCode="m/d/yyyy">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="362" formatCode="m/d/yyyy">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="363" formatCode="m/d/yyyy">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="364" formatCode="m/d/yyyy">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="365" formatCode="m/d/yyyy">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="366" formatCode="m/d/yyyy">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="367" formatCode="m/d/yyyy">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="368" formatCode="m/d/yyyy">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="369" formatCode="m/d/yyyy">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="370" formatCode="m/d/yyyy">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="371" formatCode="m/d/yyyy">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="372" formatCode="m/d/yyyy">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="373" formatCode="m/d/yyyy">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="374" formatCode="m/d/yyyy">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="375" formatCode="m/d/yyyy">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="376" formatCode="m/d/yyyy">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="377" formatCode="m/d/yyyy">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="378" formatCode="m/d/yyyy">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="379" formatCode="m/d/yyyy">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="380" formatCode="m/d/yyyy">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="381" formatCode="m/d/yyyy">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="382" formatCode="m/d/yyyy">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="383" formatCode="m/d/yyyy">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="384" formatCode="m/d/yyyy">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="385" formatCode="m/d/yyyy">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="386" formatCode="m/d/yyyy">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="387" formatCode="m/d/yyyy">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="388" formatCode="m/d/yyyy">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="389" formatCode="m/d/yyyy">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="390" formatCode="m/d/yyyy">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="391" formatCode="m/d/yyyy">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="392" formatCode="m/d/yyyy">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="393" formatCode="m/d/yyyy">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="394" formatCode="m/d/yyyy">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="395" formatCode="m/d/yyyy">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="396" formatCode="m/d/yyyy">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="397" formatCode="m/d/yyyy">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="398" formatCode="m/d/yyyy">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="399" formatCode="m/d/yyyy">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="400" formatCode="m/d/yyyy">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="401" formatCode="m/d/yyyy">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="402" formatCode="m/d/yyyy">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="403" formatCode="m/d/yyyy">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="404" formatCode="m/d/yyyy">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="405" formatCode="m/d/yyyy">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="406" formatCode="m/d/yyyy">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="407" formatCode="m/d/yyyy">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="408" formatCode="m/d/yyyy">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="409" formatCode="m/d/yyyy">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="410" formatCode="m/d/yyyy">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="411" formatCode="m/d/yyyy">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="412" formatCode="m/d/yyyy">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="413" formatCode="m/d/yyyy">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="414" formatCode="m/d/yyyy">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="415" formatCode="m/d/yyyy">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="416" formatCode="m/d/yyyy">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="417" formatCode="m/d/yyyy">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="418" formatCode="m/d/yyyy">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="419" formatCode="m/d/yyyy">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="420" formatCode="m/d/yyyy">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="421" formatCode="m/d/yyyy">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="422" formatCode="m/d/yyyy">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="423" formatCode="m/d/yyyy">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="424" formatCode="m/d/yyyy">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="425" formatCode="m/d/yyyy">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="426" formatCode="m/d/yyyy">
+                  <c:v>44743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$428</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="428"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>288.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>290.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>318.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>329.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>321.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>247.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>257.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>267.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>258.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>261.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>273.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>272.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>261.52</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>271.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>278.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>273.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>277.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>297.47000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>288.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>294.87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>309.64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>320.52</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>317.98</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>346.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>351.45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>349.15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340.36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>345.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>353.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>329.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>331.89</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>339.94</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>330.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>361.23</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>358.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>322.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>306.05</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>322.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>330.22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>343.93</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>367.07</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>375.22</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>375.34</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>389.83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>371.16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>387.81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>395.43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>387.86</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>392.45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>375.22</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>417.09</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>408.78</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>412.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>403.69</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>414.95</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>415.35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>408.14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>424.21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>414.03</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>417.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>418.68</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>431.35</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>435.71</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>438.78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>443.38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>451.67</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>440.19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>450.19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>450.53</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>448.13</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>463.56</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>458.93</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>467.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>461.79</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>466.45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>481.61</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>467.14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>445.77</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>450.91</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>456.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>444.27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>458.26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>475.49</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>462.71</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>472.35</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>453.69</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>459.27</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>470.42</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>487.39</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>500.71</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>514.71</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>533.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>544.75</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>562.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>561.88</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>584.41</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>581.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>605.37</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>615.92999999999995</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>636.02</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>640.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>645.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>654.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>669.12</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>670.63</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>639.95000000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>651.99</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>687.33</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>705.27</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>757.02</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>740.74</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>786.16</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>790.82</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>757.12</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>801.34</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>848.28</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>885.14</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>954.31</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>899.47</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>947.28</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>914.62</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>955.4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>970.43</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>980.28</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="#,##0.00">
+                  <c:v>1049.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="#,##0.00">
+                  <c:v>1101.75</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="#,##0.00">
+                  <c:v>1111.75</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="#,##0.00">
+                  <c:v>1090.82</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="#,##0.00">
+                  <c:v>1133.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="#,##0.00">
+                  <c:v>1120.67</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>957.28</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="#,##0.00">
+                  <c:v>1017.01</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="#,##0.00">
+                  <c:v>1098.67</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="#,##0.00">
+                  <c:v>1163.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="#,##0.00">
+                  <c:v>1229.23</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="#,##0.00">
+                  <c:v>1279.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="#,##0.00">
+                  <c:v>1238.33</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="#,##0.00">
+                  <c:v>1286.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="#,##0.00">
+                  <c:v>1335.18</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="#,##0.00">
+                  <c:v>1301.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="#,##0.00">
+                  <c:v>1372.71</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="#,##0.00">
+                  <c:v>1328.72</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="#,##0.00">
+                  <c:v>1320.41</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="#,##0.00">
+                  <c:v>1282.71</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="#,##0.00">
+                  <c:v>1362.93</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="#,##0.00">
+                  <c:v>1388.91</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="#,##0.00">
+                  <c:v>1469.25</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="#,##0.00">
+                  <c:v>1394.46</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="#,##0.00">
+                  <c:v>1366.42</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="#,##0.00">
+                  <c:v>1498.58</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="#,##0.00">
+                  <c:v>1452.43</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="#,##0.00">
+                  <c:v>1420.6</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="#,##0.00">
+                  <c:v>1454.6</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="#,##0.00">
+                  <c:v>1430.83</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="#,##0.00">
+                  <c:v>1517.68</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="#,##0.00">
+                  <c:v>1436.51</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="#,##0.00">
+                  <c:v>1429.4</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="#,##0.00">
+                  <c:v>1314.95</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="#,##0.00">
+                  <c:v>1320.28</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="#,##0.00">
+                  <c:v>1366.01</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="#,##0.00">
+                  <c:v>1239.94</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="#,##0.00">
+                  <c:v>1160.33</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="#,##0.00">
+                  <c:v>1249.46</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="#,##0.00">
+                  <c:v>1255.82</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="#,##0.00">
+                  <c:v>1224.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="#,##0.00">
+                  <c:v>1211.23</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="#,##0.00">
+                  <c:v>1133.58</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="#,##0.00">
+                  <c:v>1040.94</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="#,##0.00">
+                  <c:v>1059.78</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="#,##0.00">
+                  <c:v>1139.45</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="#,##0.00">
+                  <c:v>1148.08</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="#,##0.00">
+                  <c:v>1130.2</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="#,##0.00">
+                  <c:v>1106.73</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="#,##0.00">
+                  <c:v>1147.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="#,##0.00">
+                  <c:v>1076.92</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="#,##0.00">
+                  <c:v>1067.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>989.82</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>911.62</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>916.07</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>815.28</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>885.76</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>936.31</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>879.82</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>855.7</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>841.15</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>848.18</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>916.92</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>963.59</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>974.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>990.31</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="#,##0.00">
+                  <c:v>1008.01</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>995.97</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="#,##0.00">
+                  <c:v>1050.71</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="#,##0.00">
+                  <c:v>1058.2</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="#,##0.00">
+                  <c:v>1111.92</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="#,##0.00">
+                  <c:v>1131.1300000000001</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="#,##0.00">
+                  <c:v>1144.94</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="#,##0.00">
+                  <c:v>1126.21</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="#,##0.00">
+                  <c:v>1107.3</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="#,##0.00">
+                  <c:v>1120.68</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="#,##0.00">
+                  <c:v>1140.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="#,##0.00">
+                  <c:v>1101.72</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="#,##0.00">
+                  <c:v>1104.24</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="#,##0.00">
+                  <c:v>1114.58</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="#,##0.00">
+                  <c:v>1130.2</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="#,##0.00">
+                  <c:v>1173.82</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="#,##0.00">
+                  <c:v>1211.92</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="#,##0.00">
+                  <c:v>1181.27</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="#,##0.00">
+                  <c:v>1203.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="#,##0.00">
+                  <c:v>1180.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="#,##0.00">
+                  <c:v>1156.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="#,##0.00">
+                  <c:v>1191.5</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="#,##0.00">
+                  <c:v>1191.33</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="#,##0.00">
+                  <c:v>1234.18</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="#,##0.00">
+                  <c:v>1220.33</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="#,##0.00">
+                  <c:v>1228.81</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="#,##0.00">
+                  <c:v>1207.01</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="#,##0.00">
+                  <c:v>1249.48</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="#,##0.00">
+                  <c:v>1248.29</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="#,##0.00">
+                  <c:v>1280.08</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="#,##0.00">
+                  <c:v>1280.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="#,##0.00">
+                  <c:v>1294.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="#,##0.00">
+                  <c:v>1310.6099999999999</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="#,##0.00">
+                  <c:v>1270.0899999999999</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="#,##0.00">
+                  <c:v>1270.2</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="#,##0.00">
+                  <c:v>1276.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="#,##0.00">
+                  <c:v>1303.82</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="#,##0.00">
+                  <c:v>1335.85</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="#,##0.00">
+                  <c:v>1377.94</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="#,##0.00">
+                  <c:v>1400.63</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="#,##0.00">
+                  <c:v>1418.3</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="#,##0.00">
+                  <c:v>1438.24</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="#,##0.00">
+                  <c:v>1406.82</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="#,##0.00">
+                  <c:v>1420.86</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="#,##0.00">
+                  <c:v>1482.37</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="#,##0.00">
+                  <c:v>1530.62</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="#,##0.00">
+                  <c:v>1503.35</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="#,##0.00">
+                  <c:v>1455.27</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="#,##0.00">
+                  <c:v>1473.99</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="#,##0.00">
+                  <c:v>1526.75</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="#,##0.00">
+                  <c:v>1549.38</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="#,##0.00">
+                  <c:v>1481.14</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="#,##0.00">
+                  <c:v>1468.36</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="#,##0.00">
+                  <c:v>1378.55</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="#,##0.00">
+                  <c:v>1330.63</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="#,##0.00">
+                  <c:v>1322.7</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="#,##0.00">
+                  <c:v>1385.59</c:v>
+                </c:pt>
+                <c:pt idx="257" formatCode="#,##0.00">
+                  <c:v>1400.38</c:v>
+                </c:pt>
+                <c:pt idx="258" formatCode="#,##0.00">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="259" formatCode="#,##0.00">
+                  <c:v>1267.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="260" formatCode="#,##0.00">
+                  <c:v>1282.83</c:v>
+                </c:pt>
+                <c:pt idx="261" formatCode="#,##0.00">
+                  <c:v>1166.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>968.75</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>896.24</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>903.25</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>825.88</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>735.09</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>797.87</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>872.81</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>919.14</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>919.32</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>987.48</c:v>
+                </c:pt>
+                <c:pt idx="272" formatCode="#,##0.00">
+                  <c:v>1020.62</c:v>
+                </c:pt>
+                <c:pt idx="273" formatCode="#,##0.00">
+                  <c:v>1057.08</c:v>
+                </c:pt>
+                <c:pt idx="274" formatCode="#,##0.00">
+                  <c:v>1036.19</c:v>
+                </c:pt>
+                <c:pt idx="275" formatCode="#,##0.00">
+                  <c:v>1095.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="276" formatCode="#,##0.00">
+                  <c:v>1115.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="277" formatCode="#,##0.00">
+                  <c:v>1073.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="278" formatCode="#,##0.00">
+                  <c:v>1104.49</c:v>
+                </c:pt>
+                <c:pt idx="279" formatCode="#,##0.00">
+                  <c:v>1169.43</c:v>
+                </c:pt>
+                <c:pt idx="280" formatCode="#,##0.00">
+                  <c:v>1186.69</c:v>
+                </c:pt>
+                <c:pt idx="281" formatCode="#,##0.00">
+                  <c:v>1089.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="282" formatCode="#,##0.00">
+                  <c:v>1030.71</c:v>
+                </c:pt>
+                <c:pt idx="283" formatCode="#,##0.00">
+                  <c:v>1101.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="284" formatCode="#,##0.00">
+                  <c:v>1049.33</c:v>
+                </c:pt>
+                <c:pt idx="285" formatCode="#,##0.00">
+                  <c:v>1141.2</c:v>
+                </c:pt>
+                <c:pt idx="286" formatCode="#,##0.00">
+                  <c:v>1183.26</c:v>
+                </c:pt>
+                <c:pt idx="287" formatCode="#,##0.00">
+                  <c:v>1180.55</c:v>
+                </c:pt>
+                <c:pt idx="288" formatCode="#,##0.00">
+                  <c:v>1257.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="289" formatCode="#,##0.00">
+                  <c:v>1286.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="290" formatCode="#,##0.00">
+                  <c:v>1327.22</c:v>
+                </c:pt>
+                <c:pt idx="291" formatCode="#,##0.00">
+                  <c:v>1325.83</c:v>
+                </c:pt>
+                <c:pt idx="292" formatCode="#,##0.00">
+                  <c:v>1363.61</c:v>
+                </c:pt>
+                <c:pt idx="293" formatCode="#,##0.00">
+                  <c:v>1345.2</c:v>
+                </c:pt>
+                <c:pt idx="294" formatCode="#,##0.00">
+                  <c:v>1320.64</c:v>
+                </c:pt>
+                <c:pt idx="295" formatCode="#,##0.00">
+                  <c:v>1292.28</c:v>
+                </c:pt>
+                <c:pt idx="296" formatCode="#,##0.00">
+                  <c:v>1218.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="297" formatCode="#,##0.00">
+                  <c:v>1131.42</c:v>
+                </c:pt>
+                <c:pt idx="298" formatCode="#,##0.00">
+                  <c:v>1253.3</c:v>
+                </c:pt>
+                <c:pt idx="299" formatCode="#,##0.00">
+                  <c:v>1246.96</c:v>
+                </c:pt>
+                <c:pt idx="300" formatCode="#,##0.00">
+                  <c:v>1257.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="301" formatCode="#,##0.00">
+                  <c:v>1312.41</c:v>
+                </c:pt>
+                <c:pt idx="302" formatCode="#,##0.00">
+                  <c:v>1365.68</c:v>
+                </c:pt>
+                <c:pt idx="303" formatCode="#,##0.00">
+                  <c:v>1408.47</c:v>
+                </c:pt>
+                <c:pt idx="304" formatCode="#,##0.00">
+                  <c:v>1397.91</c:v>
+                </c:pt>
+                <c:pt idx="305" formatCode="#,##0.00">
+                  <c:v>1310.33</c:v>
+                </c:pt>
+                <c:pt idx="306" formatCode="#,##0.00">
+                  <c:v>1362.16</c:v>
+                </c:pt>
+                <c:pt idx="307" formatCode="#,##0.00">
+                  <c:v>1379.32</c:v>
+                </c:pt>
+                <c:pt idx="308" formatCode="#,##0.00">
+                  <c:v>1406.58</c:v>
+                </c:pt>
+                <c:pt idx="309" formatCode="#,##0.00">
+                  <c:v>1440.67</c:v>
+                </c:pt>
+                <c:pt idx="310" formatCode="#,##0.00">
+                  <c:v>1412.16</c:v>
+                </c:pt>
+                <c:pt idx="311" formatCode="#,##0.00">
+                  <c:v>1416.18</c:v>
+                </c:pt>
+                <c:pt idx="312" formatCode="#,##0.00">
+                  <c:v>1426.19</c:v>
+                </c:pt>
+                <c:pt idx="313" formatCode="#,##0.00">
+                  <c:v>1498.11</c:v>
+                </c:pt>
+                <c:pt idx="314" formatCode="#,##0.00">
+                  <c:v>1514.68</c:v>
+                </c:pt>
+                <c:pt idx="315" formatCode="#,##0.00">
+                  <c:v>1569.19</c:v>
+                </c:pt>
+                <c:pt idx="316" formatCode="#,##0.00">
+                  <c:v>1597.57</c:v>
+                </c:pt>
+                <c:pt idx="317" formatCode="#,##0.00">
+                  <c:v>1630.74</c:v>
+                </c:pt>
+                <c:pt idx="318" formatCode="#,##0.00">
+                  <c:v>1606.28</c:v>
+                </c:pt>
+                <c:pt idx="319" formatCode="#,##0.00">
+                  <c:v>1685.73</c:v>
+                </c:pt>
+                <c:pt idx="320" formatCode="#,##0.00">
+                  <c:v>1632.97</c:v>
+                </c:pt>
+                <c:pt idx="321" formatCode="#,##0.00">
+                  <c:v>1681.55</c:v>
+                </c:pt>
+                <c:pt idx="322" formatCode="#,##0.00">
+                  <c:v>1756.54</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="#,##0.00">
+                  <c:v>1805.81</c:v>
+                </c:pt>
+                <c:pt idx="324" formatCode="#,##0.00">
+                  <c:v>1848.36</c:v>
+                </c:pt>
+                <c:pt idx="325" formatCode="#,##0.00">
+                  <c:v>1782.59</c:v>
+                </c:pt>
+                <c:pt idx="326" formatCode="#,##0.00">
+                  <c:v>1859.45</c:v>
+                </c:pt>
+                <c:pt idx="327" formatCode="#,##0.00">
+                  <c:v>1872.34</c:v>
+                </c:pt>
+                <c:pt idx="328" formatCode="#,##0.00">
+                  <c:v>1883.95</c:v>
+                </c:pt>
+                <c:pt idx="329" formatCode="#,##0.00">
+                  <c:v>1923.57</c:v>
+                </c:pt>
+                <c:pt idx="330" formatCode="#,##0.00">
+                  <c:v>1960.23</c:v>
+                </c:pt>
+                <c:pt idx="331" formatCode="#,##0.00">
+                  <c:v>1930.67</c:v>
+                </c:pt>
+                <c:pt idx="332" formatCode="#,##0.00">
+                  <c:v>2003.37</c:v>
+                </c:pt>
+                <c:pt idx="333" formatCode="#,##0.00">
+                  <c:v>1972.29</c:v>
+                </c:pt>
+                <c:pt idx="334" formatCode="#,##0.00">
+                  <c:v>2018.05</c:v>
+                </c:pt>
+                <c:pt idx="335" formatCode="#,##0.00">
+                  <c:v>2067.56</c:v>
+                </c:pt>
+                <c:pt idx="336" formatCode="#,##0.00">
+                  <c:v>2058.9</c:v>
+                </c:pt>
+                <c:pt idx="337" formatCode="#,##0.00">
+                  <c:v>1994.99</c:v>
+                </c:pt>
+                <c:pt idx="338" formatCode="#,##0.00">
+                  <c:v>2104.5</c:v>
+                </c:pt>
+                <c:pt idx="339" formatCode="#,##0.00">
+                  <c:v>2067.89</c:v>
+                </c:pt>
+                <c:pt idx="340" formatCode="#,##0.00">
+                  <c:v>2085.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="341" formatCode="#,##0.00">
+                  <c:v>2107.39</c:v>
+                </c:pt>
+                <c:pt idx="342" formatCode="#,##0.00">
+                  <c:v>2063.11</c:v>
+                </c:pt>
+                <c:pt idx="343" formatCode="#,##0.00">
+                  <c:v>2103.84</c:v>
+                </c:pt>
+                <c:pt idx="344" formatCode="#,##0.00">
+                  <c:v>1972.18</c:v>
+                </c:pt>
+                <c:pt idx="345" formatCode="#,##0.00">
+                  <c:v>1920.03</c:v>
+                </c:pt>
+                <c:pt idx="346" formatCode="#,##0.00">
+                  <c:v>2079.36</c:v>
+                </c:pt>
+                <c:pt idx="347" formatCode="#,##0.00">
+                  <c:v>2080.41</c:v>
+                </c:pt>
+                <c:pt idx="348" formatCode="#,##0.00">
+                  <c:v>2043.94</c:v>
+                </c:pt>
+                <c:pt idx="349" formatCode="#,##0.00">
+                  <c:v>1940.24</c:v>
+                </c:pt>
+                <c:pt idx="350" formatCode="#,##0.00">
+                  <c:v>1932.23</c:v>
+                </c:pt>
+                <c:pt idx="351" formatCode="#,##0.00">
+                  <c:v>2059.7399999999998</c:v>
+                </c:pt>
+                <c:pt idx="352" formatCode="#,##0.00">
+                  <c:v>2065.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="353" formatCode="#,##0.00">
+                  <c:v>2096.9499999999998</c:v>
+                </c:pt>
+                <c:pt idx="354" formatCode="#,##0.00">
+                  <c:v>2098.86</c:v>
+                </c:pt>
+                <c:pt idx="355" formatCode="#,##0.00">
+                  <c:v>2173.6</c:v>
+                </c:pt>
+                <c:pt idx="356" formatCode="#,##0.00">
+                  <c:v>2170.9499999999998</c:v>
+                </c:pt>
+                <c:pt idx="357" formatCode="#,##0.00">
+                  <c:v>2168.27</c:v>
+                </c:pt>
+                <c:pt idx="358" formatCode="#,##0.00">
+                  <c:v>2126.15</c:v>
+                </c:pt>
+                <c:pt idx="359" formatCode="#,##0.00">
+                  <c:v>2198.81</c:v>
+                </c:pt>
+                <c:pt idx="360" formatCode="#,##0.00">
+                  <c:v>2238.83</c:v>
+                </c:pt>
+                <c:pt idx="361" formatCode="#,##0.00">
+                  <c:v>2278.87</c:v>
+                </c:pt>
+                <c:pt idx="362" formatCode="#,##0.00">
+                  <c:v>2363.64</c:v>
+                </c:pt>
+                <c:pt idx="363" formatCode="#,##0.00">
+                  <c:v>2362.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="364" formatCode="#,##0.00">
+                  <c:v>2384.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="365" formatCode="#,##0.00">
+                  <c:v>2411.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="366" formatCode="#,##0.00">
+                  <c:v>2423.41</c:v>
+                </c:pt>
+                <c:pt idx="367" formatCode="#,##0.00">
+                  <c:v>2470.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="368" formatCode="#,##0.00">
+                  <c:v>2471.65</c:v>
+                </c:pt>
+                <c:pt idx="369" formatCode="#,##0.00">
+                  <c:v>2519.36</c:v>
+                </c:pt>
+                <c:pt idx="370" formatCode="#,##0.00">
+                  <c:v>2575.2600000000002</c:v>
+                </c:pt>
+                <c:pt idx="371" formatCode="#,##0.00">
+                  <c:v>2647.58</c:v>
+                </c:pt>
+                <c:pt idx="372" formatCode="#,##0.00">
+                  <c:v>2673.61</c:v>
+                </c:pt>
+                <c:pt idx="373" formatCode="#,##0.00">
+                  <c:v>2823.81</c:v>
+                </c:pt>
+                <c:pt idx="374" formatCode="#,##0.00">
+                  <c:v>2713.83</c:v>
+                </c:pt>
+                <c:pt idx="375" formatCode="#,##0.00">
+                  <c:v>2640.87</c:v>
+                </c:pt>
+                <c:pt idx="376" formatCode="#,##0.00">
+                  <c:v>2648.05</c:v>
+                </c:pt>
+                <c:pt idx="377" formatCode="#,##0.00">
+                  <c:v>2705.27</c:v>
+                </c:pt>
+                <c:pt idx="378" formatCode="#,##0.00">
+                  <c:v>2718.37</c:v>
+                </c:pt>
+                <c:pt idx="379" formatCode="#,##0.00">
+                  <c:v>2816.29</c:v>
+                </c:pt>
+                <c:pt idx="380" formatCode="#,##0.00">
+                  <c:v>2901.52</c:v>
+                </c:pt>
+                <c:pt idx="381" formatCode="#,##0.00">
+                  <c:v>2913.98</c:v>
+                </c:pt>
+                <c:pt idx="382" formatCode="#,##0.00">
+                  <c:v>2711.74</c:v>
+                </c:pt>
+                <c:pt idx="383" formatCode="#,##0.00">
+                  <c:v>2760.17</c:v>
+                </c:pt>
+                <c:pt idx="384" formatCode="#,##0.00">
+                  <c:v>2506.85</c:v>
+                </c:pt>
+                <c:pt idx="385" formatCode="#,##0.00">
+                  <c:v>2704.1</c:v>
+                </c:pt>
+                <c:pt idx="386" formatCode="#,##0.00">
+                  <c:v>2784.49</c:v>
+                </c:pt>
+                <c:pt idx="387" formatCode="#,##0.00">
+                  <c:v>2834.4</c:v>
+                </c:pt>
+                <c:pt idx="388" formatCode="#,##0.00">
+                  <c:v>2945.83</c:v>
+                </c:pt>
+                <c:pt idx="389" formatCode="#,##0.00">
+                  <c:v>2752.06</c:v>
+                </c:pt>
+                <c:pt idx="390" formatCode="#,##0.00">
+                  <c:v>2941.76</c:v>
+                </c:pt>
+                <c:pt idx="391" formatCode="#,##0.00">
+                  <c:v>2980.38</c:v>
+                </c:pt>
+                <c:pt idx="392" formatCode="#,##0.00">
+                  <c:v>2926.46</c:v>
+                </c:pt>
+                <c:pt idx="393" formatCode="#,##0.00">
+                  <c:v>2976.74</c:v>
+                </c:pt>
+                <c:pt idx="394" formatCode="#,##0.00">
+                  <c:v>3037.56</c:v>
+                </c:pt>
+                <c:pt idx="395" formatCode="#,##0.00">
+                  <c:v>3140.98</c:v>
+                </c:pt>
+                <c:pt idx="396" formatCode="#,##0.00">
+                  <c:v>3230.78</c:v>
+                </c:pt>
+                <c:pt idx="397" formatCode="#,##0.00">
+                  <c:v>3225.52</c:v>
+                </c:pt>
+                <c:pt idx="398" formatCode="#,##0.00">
+                  <c:v>2954.22</c:v>
+                </c:pt>
+                <c:pt idx="399" formatCode="#,##0.00">
+                  <c:v>2584.59</c:v>
+                </c:pt>
+                <c:pt idx="400" formatCode="#,##0.00">
+                  <c:v>2912.43</c:v>
+                </c:pt>
+                <c:pt idx="401" formatCode="#,##0.00">
+                  <c:v>3044.31</c:v>
+                </c:pt>
+                <c:pt idx="402" formatCode="#,##0.00">
+                  <c:v>3100.29</c:v>
+                </c:pt>
+                <c:pt idx="403" formatCode="#,##0.00">
+                  <c:v>3271.12</c:v>
+                </c:pt>
+                <c:pt idx="404" formatCode="#,##0.00">
+                  <c:v>3500.31</c:v>
+                </c:pt>
+                <c:pt idx="405" formatCode="#,##0.00">
+                  <c:v>3363</c:v>
+                </c:pt>
+                <c:pt idx="406" formatCode="#,##0.00">
+                  <c:v>3269.96</c:v>
+                </c:pt>
+                <c:pt idx="407" formatCode="#,##0.00">
+                  <c:v>3621.63</c:v>
+                </c:pt>
+                <c:pt idx="408" formatCode="#,##0.00">
+                  <c:v>3756.07</c:v>
+                </c:pt>
+                <c:pt idx="409" formatCode="#,##0.00">
+                  <c:v>3714.24</c:v>
+                </c:pt>
+                <c:pt idx="410" formatCode="#,##0.00">
+                  <c:v>3811.15</c:v>
+                </c:pt>
+                <c:pt idx="411" formatCode="#,##0.00">
+                  <c:v>3972.89</c:v>
+                </c:pt>
+                <c:pt idx="412" formatCode="#,##0.00">
+                  <c:v>4181.17</c:v>
+                </c:pt>
+                <c:pt idx="413" formatCode="#,##0.00">
+                  <c:v>4204.1099999999997</c:v>
+                </c:pt>
+                <c:pt idx="414" formatCode="#,##0.00">
+                  <c:v>4297.5</c:v>
+                </c:pt>
+                <c:pt idx="415" formatCode="#,##0.00">
+                  <c:v>4395.26</c:v>
+                </c:pt>
+                <c:pt idx="416" formatCode="#,##0.00">
+                  <c:v>4522.68</c:v>
+                </c:pt>
+                <c:pt idx="417" formatCode="#,##0.00">
+                  <c:v>4307.54</c:v>
+                </c:pt>
+                <c:pt idx="418" formatCode="#,##0.00">
+                  <c:v>4605.38</c:v>
+                </c:pt>
+                <c:pt idx="419" formatCode="#,##0.00">
+                  <c:v>4567</c:v>
+                </c:pt>
+                <c:pt idx="420" formatCode="#,##0.00">
+                  <c:v>4766.18</c:v>
+                </c:pt>
+                <c:pt idx="421" formatCode="#,##0.00">
+                  <c:v>4515.55</c:v>
+                </c:pt>
+                <c:pt idx="422" formatCode="#,##0.00">
+                  <c:v>4373.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="423" formatCode="#,##0.00">
+                  <c:v>4530.41</c:v>
+                </c:pt>
+                <c:pt idx="424" formatCode="#,##0.00">
+                  <c:v>4131.93</c:v>
+                </c:pt>
+                <c:pt idx="425" formatCode="#,##0.00">
+                  <c:v>4132.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="426" formatCode="#,##0.00">
+                  <c:v>3785.38</c:v>
+                </c:pt>
+                <c:pt idx="427" formatCode="#,##0.00">
+                  <c:v>4130.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3A2-4FAE-A3D9-B896AD980430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="701120840"/>
+        <c:axId val="701119856"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="558025120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558026104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="558026104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558025120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="701119856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701120840"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="701120840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="701119856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292A9A8B-7E57-4495-BB59-9B64F4F98086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,7 +6551,7 @@
   <dimension ref="A1:H428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H428"/>
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,6 +6560,7 @@
     <col min="2" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -488,10 +6580,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -12030,5 +18122,6 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>